--- a/biology/Zoologie/Charina_bottae/Charina_bottae.xlsx
+++ b/biology/Zoologie/Charina_bottae/Charina_bottae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charina bottae est une espèce de serpents de la famille des Boidae[1]. Son nom vernaculaire français est Boa caoutchouc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charina bottae est une espèce de serpents de la famille des Boidae. Son nom vernaculaire français est Boa caoutchouc.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans les États de Washington, en Oregon, en Californie, en Idaho, au Montana, au Nevada, en Utah et au Wyoming ;
 au Canada dans le sud de la Colombie-Britannique.</t>
         </is>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charina bottae mesure jusqu'à 75 cm. De couleur brune, sa peau a un aspect caoutchouteux ce qui lui a valu son nom courant. Sa queue arrondie ressemble à une tête. Lorsqu’il est attaqué, les prédateurs confondent ainsi sa queue et sa tête ce qui permet au serpent de mieux se protéger face aux attaques[2].
-Il s’agit d’un serpent nocturne. La femelle donne naissance à une portée de 2 à 8 jeunes entre la fin de l’été et le début de l’automne. Dans son milieu naturel, il peut vivre parfois jusqu'à 30 ans[2]. Ce serpent se nourrit d’œufs et de petits animaux comme des mammifères et parfois des oiseaux et des lézards. Ses prédateurs peuvent être de grands oiseaux comme le Grand corbeau mais aussi de gros mammifères comme le Raton laveur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charina bottae mesure jusqu'à 75 cm. De couleur brune, sa peau a un aspect caoutchouteux ce qui lui a valu son nom courant. Sa queue arrondie ressemble à une tête. Lorsqu’il est attaqué, les prédateurs confondent ainsi sa queue et sa tête ce qui permet au serpent de mieux se protéger face aux attaques.
+Il s’agit d’un serpent nocturne. La femelle donne naissance à une portée de 2 à 8 jeunes entre la fin de l’été et le début de l’automne. Dans son milieu naturel, il peut vivre parfois jusqu'à 30 ans. Ce serpent se nourrit d’œufs et de petits animaux comme des mammifères et parfois des oiseaux et des lézards. Ses prédateurs peuvent être de grands oiseaux comme le Grand corbeau mais aussi de gros mammifères comme le Raton laveur.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Charina bottae umbratica a été élevée au rang d'espèce et Charina bottae utahensis est maintenant considérée comme un synonyme.
 </t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Émile Botta (1802-1870), archéologue, explorateur et diplomate italien[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Paul Émile Botta (1802-1870), archéologue, explorateur et diplomate italien.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Blainville, 1835 : Description de quelques espèces de reptiles de la Californie précédée de l’analyse d’un système général d’herpétologie et d’amphibiologie. Nouvelles Annales du Muséum d'Histoire Naturelle, vol. 4, p. 233-296 (texte intégral).
 Van Denburg, 1920 : Description of a new subspecies of boa (Charina bottae utahensis) from Utah. Proceedings of the California Academy of Sciences, ser. 4, vol. 10, p. 31-34 (texte intégral).</t>
